--- a/training datasets/Broadbalk_maize_fake_data.xlsx
+++ b/training datasets/Broadbalk_maize_fake_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rothamsted.sharepoint.com/teams/ResearchDataStewardship/Shared Documents/Training/GNCA Training Workshop/test datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\training\FAIR-RDM-training-for-LTEs\training datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{6F5E2572-8D05-429B-AF65-900DCDAF5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C428BC-034F-4DE3-89B1-4F623E6EBF20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE6384-EC66-423A-92DF-8A3A6F21C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32550" yWindow="3750" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="data" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$C$1:$D$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$C$5:$D$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="129">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>plot</t>
   </si>
   <si>
@@ -357,6 +354,78 @@
   </si>
   <si>
     <t xml:space="preserve">BBSRC BBS/E/C/000J0300 </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sowing date</t>
+  </si>
+  <si>
+    <t>11/10/0001</t>
+  </si>
+  <si>
+    <t>havest date</t>
+  </si>
+  <si>
+    <t>12/07/0002</t>
+  </si>
+  <si>
+    <t>17/10/0002</t>
+  </si>
+  <si>
+    <t>11/07/0003</t>
+  </si>
+  <si>
+    <t>11/11/0003</t>
+  </si>
+  <si>
+    <t>12/07/0004</t>
+  </si>
+  <si>
+    <t>30/09/0004</t>
+  </si>
+  <si>
+    <t>01/08/0005</t>
+  </si>
+  <si>
+    <t>09/10/0005</t>
+  </si>
+  <si>
+    <t>01/09/0006</t>
+  </si>
+  <si>
+    <t>17/11/0006</t>
+  </si>
+  <si>
+    <t>07/09/0007</t>
+  </si>
+  <si>
+    <t>11/11/0007</t>
+  </si>
+  <si>
+    <t>12/08/0008</t>
+  </si>
+  <si>
+    <t>01/11/0008</t>
+  </si>
+  <si>
+    <t>02/09/0009</t>
+  </si>
+  <si>
+    <t>22/09/0009</t>
+  </si>
+  <si>
+    <t>12/09/0010</t>
+  </si>
+  <si>
+    <t>21/10/0010</t>
+  </si>
+  <si>
+    <t>23/07/0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gre</t>
   </si>
 </sst>
 </file>
@@ -904,6 +973,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,15 +994,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1296,30 +1365,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2">
         <v>51.809460000000001</v>
@@ -1327,7 +1396,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2">
         <v>-0.37301000000000001</v>
@@ -1335,15 +1404,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3">
         <v>0.25</v>
@@ -1351,7 +1420,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3">
         <v>0.5</v>
@@ -1359,7 +1428,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3">
         <v>0.25</v>
@@ -1367,58 +1436,58 @@
     </row>
     <row r="11" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1511,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1468,37 +1537,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>83</v>
+      <c r="A3" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -1507,101 +1576,101 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7">
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
         <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7">
         <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7">
         <v>192</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7">
         <v>240</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>288</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
@@ -1610,18 +1679,18 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8">
         <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1636,1428 +1705,1257 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="B2:T82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5">
+        <v>14.16</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5">
+        <v>13.46</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5">
+        <v>16.79</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="P6" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.91</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.63</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6.08</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="5">
+        <v>12.88</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="5">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10.16</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="5">
+        <v>10.81</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="5">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16">
+        <v>22.63</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="5">
+        <v>14.04</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="5">
+        <v>15.24</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="5">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
+        <v>11.78</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="16">
+        <v>24.02</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="5">
+        <v>16.12</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="5">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11.78</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="5">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="16">
+        <v>22.38</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="5">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9.93</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="5">
+        <v>12.91</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="5">
+        <v>15.78</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="5">
+        <v>12.41</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="5">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10.71</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5">
+        <v>8.83</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12.69</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="16">
+        <v>21.11</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5">
+        <v>14.19</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="5">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="G21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2.89</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="K21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="L21" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="O21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="S21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="5">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4.28</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="S22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8.26</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7.47</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="5">
+        <v>8.25</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="5">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="5">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="5">
+        <v>15.39</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="5">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12.02</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="5">
+        <v>9.84</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="16">
+        <v>21.47</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="5">
+        <v>13.64</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="5">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5">
+        <v>9.23</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="5">
+        <v>12.99</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="5">
+        <v>11.26</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="5">
+        <v>6.86</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" s="5">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5">
+        <v>13.37</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="5">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="5">
+        <v>14.89</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="5">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="5">
+        <v>9.09</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10.71</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="5">
+        <v>13.05</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="5">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="5">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7.08</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="5">
+        <v>11.67</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="16">
+        <v>20.57</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="5">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>10</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="C30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10.48</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12.69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="G30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>6.76</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="20">
-        <v>21.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="K30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="L30" s="5">
+        <v>11.74</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5">
-        <v>14.19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>4</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="O30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="5">
+        <v>7.91</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5">
-        <v>9.9700000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>5</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>6</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>7</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>8</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5">
-        <v>11.74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>9</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>10</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="S30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="5">
         <v>8.9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="5">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="5">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>3</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="5">
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>4</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="5">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>5</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="5">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>6</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="5">
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>7</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="5">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>8</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5">
-        <v>11.67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="5">
-        <v>14.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>2</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="5">
-        <v>13.46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>3</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>9</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="20">
-        <v>20.57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>10</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="5">
-        <v>13.58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>1</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>2</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>3</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="5">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>4</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="5">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>5</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>6</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="5">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>7</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="5">
-        <v>7.47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>8</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>9</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="5">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>10</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="5">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>1</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="5">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>2</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="5">
-        <v>18.920000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>3</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="5">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>4</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="5">
-        <v>12.88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>5</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="5">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>6</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="5">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>7</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="5">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>8</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="5">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>9</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="5">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>10</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="5">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>1</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="20">
-        <v>22.63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>2</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="5">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>3</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="5">
-        <v>14.04</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>4</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="5">
-        <v>10.81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
-        <v>5</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="5">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>6</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="5">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>7</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="5">
-        <v>9.84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>8</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="20">
-        <v>21.47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>9</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="5">
-        <v>13.64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>10</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="5">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>1</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="5">
-        <v>11.78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
-        <v>2</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="5">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>3</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="20">
-        <v>24.02</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
-        <v>4</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="5">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
-        <v>5</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="5">
-        <v>7.47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
-        <v>6</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="5">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
-        <v>7</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="5">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
-        <v>8</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="5">
-        <v>11.26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
-        <v>9</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="5">
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>10</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="5">
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <v>1</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="5">
-        <v>11.78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
-        <v>2</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="5">
-        <v>9.3800000000000008</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>3</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="20">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
-        <v>4</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" s="5">
-        <v>16.12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
-        <v>5</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="5">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>6</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="5">
-        <v>13.37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
-        <v>7</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" s="5">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
-        <v>8</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" s="5">
-        <v>16.059999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
-        <v>9</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="5">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
-        <v>10</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" s="5">
-        <v>12.21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
-        <v>1</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" s="5">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
-        <v>2</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="5">
-        <v>12.91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
-        <v>3</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
-        <v>4</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" s="5">
-        <v>16.82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
-        <v>5</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="5">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="5">
-        <v>6</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" s="5">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
-        <v>7</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="5">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
-        <v>8</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="5">
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
-        <v>9</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="5">
-        <v>18.829999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
-        <v>10</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="5">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C102" s="14" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C103" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D79">
+    <sortCondition ref="B6:B79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
